--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS SETIEMBRE 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS SETIEMBRE 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="150">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">Diesel Comun Tipo III</t>
   </si>
   <si>
-    <t xml:space="preserve">boleta no encontrado</t>
-  </si>
-  <si>
     <t xml:space="preserve">001-001-4399</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-3736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no hay boleta</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-4440</t>
@@ -566,7 +560,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,19 +605,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,10 +638,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,33 +730,28 @@
         <v>36350000</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="12" t="n">
-        <f aca="false">-H2</f>
-        <v>-36350000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>42614</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>10000</v>
@@ -788,33 +765,33 @@
       <c r="I3" s="10" t="n">
         <v>2234570</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>42614</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>10000</v>
@@ -828,34 +805,34 @@
       <c r="I4" s="10" t="n">
         <v>2234570</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>75000000</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="6" t="n">
         <v>42614</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="8" t="n">
@@ -870,34 +847,34 @@
       <c r="I5" s="10" t="n">
         <v>2235521</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K5" s="9" t="n">
         <v>19992500</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="6" t="n">
         <v>42614</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="8" t="n">
@@ -912,34 +889,34 @@
       <c r="I6" s="10" t="n">
         <v>2234566</v>
       </c>
-      <c r="J6" s="15" t="n">
+      <c r="J6" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K6" s="9" t="n">
         <v>49799500</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="6" t="n">
         <v>42614</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="8" t="n">
@@ -954,35 +931,35 @@
       <c r="I7" s="10" t="n">
         <v>2234568</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K7" s="9" t="n">
         <v>53071000</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="6" t="n">
         <v>42614</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>20</v>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>9400</v>
@@ -996,34 +973,34 @@
       <c r="I8" s="10" t="n">
         <v>2234567</v>
       </c>
-      <c r="J8" s="15" t="n">
+      <c r="J8" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K8" s="9" t="n">
         <v>32806000</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="6" t="n">
         <v>42614</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="8" t="n">
@@ -1038,34 +1015,34 @@
       <c r="I9" s="10" t="n">
         <v>16508813</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="12" t="n">
         <v>42653</v>
       </c>
       <c r="K9" s="9" t="n">
         <v>56342500</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>42615</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>42615</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="8" t="n">
@@ -1080,35 +1057,35 @@
       <c r="I10" s="10" t="n">
         <v>2234569</v>
       </c>
-      <c r="J10" s="15" t="n">
+      <c r="J10" s="12" t="n">
         <v>42657</v>
       </c>
       <c r="K10" s="9" t="n">
         <v>56342500</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="6" t="n">
         <v>42619</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>6200</v>
@@ -1122,17 +1099,17 @@
       <c r="I11" s="10" t="n">
         <v>2201359</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="12" t="n">
         <v>42656</v>
       </c>
       <c r="K11" s="9" t="n">
         <v>21638000</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="5"/>
     </row>
@@ -1141,10 +1118,10 @@
         <v>42619</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>15</v>
@@ -1162,32 +1139,27 @@
         <v>33805500</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="5" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>42620</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="12" t="n">
-        <f aca="false">-H12</f>
-        <v>-33805500</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
-        <v>42620</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="8" t="n">
@@ -1202,35 +1174,35 @@
       <c r="I13" s="10" t="n">
         <v>2234571</v>
       </c>
-      <c r="J13" s="15" t="n">
+      <c r="J13" s="12" t="n">
         <v>42660</v>
       </c>
       <c r="K13" s="9" t="n">
         <v>49799500</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="6" t="n">
         <v>42620</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>20</v>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>4300</v>
@@ -1244,33 +1216,33 @@
       <c r="I14" s="10" t="n">
         <v>2234572</v>
       </c>
-      <c r="J14" s="15" t="n">
+      <c r="J14" s="12" t="n">
         <v>42660</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>42620</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
-        <v>42620</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>19700</v>
@@ -1284,34 +1256,34 @@
       <c r="I15" s="10" t="n">
         <v>2234572</v>
       </c>
-      <c r="J15" s="15" t="n">
+      <c r="J15" s="12" t="n">
         <v>42660</v>
       </c>
       <c r="K15" s="9" t="n">
         <v>94004000</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="6" t="n">
         <v>42621</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="8" t="n">
@@ -1326,35 +1298,35 @@
       <c r="I16" s="10" t="n">
         <v>2234573</v>
       </c>
-      <c r="J16" s="15" t="n">
+      <c r="J16" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K16" s="9" t="n">
         <v>14540000</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="6" t="n">
         <v>42621</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>20</v>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>11500</v>
@@ -1368,34 +1340,34 @@
       <c r="I17" s="10" t="n">
         <v>2234574</v>
       </c>
-      <c r="J17" s="15" t="n">
+      <c r="J17" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K17" s="9" t="n">
         <v>40135000</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="6" t="n">
         <v>42621</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="8" t="n">
@@ -1410,35 +1382,35 @@
       <c r="I18" s="10" t="n">
         <v>2234575</v>
       </c>
-      <c r="J18" s="15" t="n">
+      <c r="J18" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K18" s="9" t="n">
         <v>54525000</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="6" t="n">
         <v>42621</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>20</v>
+      <c r="B19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>10000</v>
@@ -1452,33 +1424,33 @@
       <c r="I19" s="10" t="n">
         <v>2234576</v>
       </c>
-      <c r="J19" s="15" t="n">
+      <c r="J19" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>42621</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
-        <v>42621</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>9900</v>
@@ -1492,34 +1464,34 @@
       <c r="I20" s="10" t="n">
         <v>2234576</v>
       </c>
-      <c r="J20" s="15" t="n">
+      <c r="J20" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K20" s="9" t="n">
         <v>74599000</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="6" t="n">
         <v>42622</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="n">
@@ -1534,35 +1506,35 @@
       <c r="I21" s="10" t="n">
         <v>2234577</v>
       </c>
-      <c r="J21" s="15" t="n">
+      <c r="J21" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K21" s="9" t="n">
         <v>36350000</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="6" t="n">
         <v>42622</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>20</v>
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>15000</v>
@@ -1576,33 +1548,33 @@
       <c r="I22" s="10" t="n">
         <v>2234578</v>
       </c>
-      <c r="J22" s="15" t="n">
+      <c r="J22" s="12" t="n">
         <v>42662</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>42622</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
-        <v>42622</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F23" s="8" t="n">
         <v>5000</v>
@@ -1616,34 +1588,34 @@
       <c r="I23" s="10" t="n">
         <v>2234578</v>
       </c>
-      <c r="J23" s="15" t="n">
+      <c r="J23" s="12" t="n">
         <v>42662</v>
       </c>
       <c r="K23" s="9" t="n">
         <v>72400000</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="6" t="n">
         <v>42622</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="8" t="n">
@@ -1658,34 +1630,34 @@
       <c r="I24" s="10" t="n">
         <v>2234580</v>
       </c>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K24" s="9" t="n">
         <v>32715000</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="6" t="n">
         <v>42622</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="8" t="n">
@@ -1700,34 +1672,34 @@
       <c r="I25" s="10" t="n">
         <v>2234579</v>
       </c>
-      <c r="J25" s="15" t="n">
+      <c r="J25" s="12" t="n">
         <v>42662</v>
       </c>
       <c r="K25" s="9" t="n">
         <v>56342500</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="6" t="n">
         <v>42625</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="8" t="n">
@@ -1742,35 +1714,35 @@
       <c r="I26" s="10" t="n">
         <v>2235515</v>
       </c>
-      <c r="J26" s="15" t="n">
+      <c r="J26" s="12" t="n">
         <v>42662</v>
       </c>
       <c r="K26" s="9" t="n">
         <v>37077000</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>42625</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
-        <v>42625</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F27" s="8" t="n">
         <v>5300</v>
@@ -1784,34 +1756,34 @@
       <c r="I27" s="10" t="n">
         <v>2235516</v>
       </c>
-      <c r="J27" s="15" t="n">
+      <c r="J27" s="12" t="n">
         <v>42661</v>
       </c>
       <c r="K27" s="9" t="n">
         <v>21253000</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="6" t="n">
         <v>42626</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="8" t="n">
@@ -1826,35 +1798,35 @@
       <c r="I28" s="10" t="n">
         <v>16601645</v>
       </c>
-      <c r="J28" s="15" t="n">
+      <c r="J28" s="12" t="n">
         <v>42664</v>
       </c>
       <c r="K28" s="9" t="n">
         <v>49799500</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="6" t="n">
         <v>42626</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>20</v>
+      <c r="B29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="8" t="n">
         <v>5000</v>
@@ -1868,33 +1840,33 @@
       <c r="I29" s="10" t="n">
         <v>2235518</v>
       </c>
-      <c r="J29" s="15" t="n">
+      <c r="J29" s="12" t="n">
         <v>42669</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>42626</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
-        <v>42626</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F30" s="8" t="n">
         <v>5000</v>
@@ -1908,34 +1880,34 @@
       <c r="I30" s="10" t="n">
         <v>2235518</v>
       </c>
-      <c r="J30" s="15" t="n">
+      <c r="J30" s="12" t="n">
         <v>42669</v>
       </c>
       <c r="K30" s="9" t="n">
         <v>37500000</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="6" t="n">
         <v>42626</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="8" t="n">
@@ -1950,34 +1922,34 @@
       <c r="I31" s="10" t="n">
         <v>16601646</v>
       </c>
-      <c r="J31" s="15" t="n">
+      <c r="J31" s="12" t="n">
         <v>42664</v>
       </c>
       <c r="K31" s="9" t="n">
         <v>19992500</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="8" t="n">
@@ -1992,35 +1964,35 @@
       <c r="I32" s="10" t="n">
         <v>2235520</v>
       </c>
-      <c r="J32" s="15" t="n">
+      <c r="J32" s="12" t="n">
         <v>42669</v>
       </c>
       <c r="K32" s="9" t="n">
         <v>87240000</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>22</v>
+      <c r="L32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>20</v>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F33" s="8" t="n">
         <v>11500</v>
@@ -2034,34 +2006,34 @@
       <c r="I33" s="10" t="n">
         <v>2235529</v>
       </c>
-      <c r="J33" s="15" t="n">
+      <c r="J33" s="12" t="n">
         <v>42669</v>
       </c>
       <c r="K33" s="9" t="n">
         <v>40135000</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>22</v>
+      <c r="L33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="8" t="n">
@@ -2076,32 +2048,32 @@
       <c r="I34" s="10" t="n">
         <v>1607374</v>
       </c>
-      <c r="J34" s="15" t="n">
+      <c r="J34" s="12" t="n">
         <v>42648</v>
       </c>
       <c r="K34" s="9" t="n">
         <v>14540000</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>34</v>
+      <c r="L34" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="8" t="n">
@@ -2118,29 +2090,24 @@
       <c r="K35" s="9"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="12" t="n">
-        <f aca="false">-H35</f>
-        <v>-90511500</v>
-      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
+      <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F36" s="8" t="n">
         <v>5000</v>
@@ -2156,29 +2123,24 @@
       <c r="K36" s="9"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="12" t="n">
-        <f aca="false">-H36</f>
-        <v>-17450000</v>
-      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>23</v>
+      <c r="B37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F37" s="8" t="n">
         <v>5000</v>
@@ -2194,28 +2156,23 @@
       <c r="K37" s="9"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="12" t="n">
-        <f aca="false">-H37</f>
-        <v>-20050000</v>
-      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="B38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="8" t="n">
@@ -2232,29 +2189,24 @@
       <c r="K38" s="9"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="12" t="n">
-        <f aca="false">-H38</f>
-        <v>-90875000</v>
-      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>20</v>
+      <c r="B39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F39" s="8" t="n">
         <v>5000</v>
@@ -2268,34 +2220,34 @@
       <c r="I39" s="10" t="n">
         <v>2235525</v>
       </c>
-      <c r="J39" s="15" t="n">
+      <c r="J39" s="12" t="n">
         <v>42667</v>
       </c>
       <c r="K39" s="9" t="n">
         <v>17450000</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="6" t="n">
         <v>42628</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="B40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="8" t="n">
@@ -2312,28 +2264,23 @@
       <c r="K40" s="9"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="12" t="n">
-        <f aca="false">-H40</f>
-        <v>-34896000</v>
-      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="6" t="n">
         <v>42629</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="B41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="8" t="n">
@@ -2350,29 +2297,24 @@
       <c r="K41" s="9"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" s="12" t="n">
-        <f aca="false">-H41</f>
-        <v>-18175000</v>
-      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="6" t="n">
         <v>42629</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>20</v>
+      <c r="B42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F42" s="8" t="n">
         <v>4000</v>
@@ -2388,28 +2330,23 @@
       <c r="K42" s="9"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O42" s="12" t="n">
-        <f aca="false">-H42</f>
-        <v>-13960000</v>
-      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="8" t="n">
@@ -2426,29 +2363,24 @@
       <c r="K43" s="9"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43" s="12" t="n">
-        <f aca="false">-H43</f>
-        <v>-72700000</v>
-      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="F44" s="8" t="n">
         <v>4900</v>
@@ -2464,29 +2396,24 @@
       <c r="K44" s="9"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O44" s="12" t="n">
-        <f aca="false">-H44</f>
-        <v>-21119000</v>
-      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>20</v>
+      <c r="B45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F45" s="8" t="n">
         <v>5000</v>
@@ -2502,29 +2429,24 @@
       <c r="K45" s="9"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O45" s="12" t="n">
-        <f aca="false">-H45</f>
-        <v>-17450000</v>
-      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>23</v>
+      <c r="B46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F46" s="8" t="n">
         <v>5000</v>
@@ -2540,28 +2462,23 @@
       <c r="K46" s="9"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46" s="12" t="n">
-        <f aca="false">-H46</f>
-        <v>-20050000</v>
-      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="B47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="8" t="n">
@@ -2576,34 +2493,34 @@
       <c r="I47" s="10" t="n">
         <v>2235505</v>
       </c>
-      <c r="J47" s="15" t="n">
+      <c r="J47" s="12" t="n">
         <v>42667</v>
       </c>
       <c r="K47" s="9" t="n">
         <v>34896000</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="B48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="8" t="n">
@@ -2618,33 +2535,33 @@
       <c r="I48" s="10" t="n">
         <v>1607374</v>
       </c>
-      <c r="J48" s="15" t="n">
+      <c r="J48" s="12" t="n">
         <v>42648</v>
       </c>
       <c r="K48" s="9" t="n">
         <v>18175000</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="6" t="n">
         <v>42633</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>20</v>
+      <c r="B49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F49" s="8" t="n">
         <v>15000</v>
@@ -2658,33 +2575,33 @@
       <c r="I49" s="10" t="n">
         <v>2235504</v>
       </c>
-      <c r="J49" s="15" t="n">
+      <c r="J49" s="12" t="n">
         <v>42670</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>42633</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
-        <v>42633</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F50" s="8" t="n">
         <v>10000</v>
@@ -2698,34 +2615,34 @@
       <c r="I50" s="10" t="n">
         <v>2235504</v>
       </c>
-      <c r="J50" s="15" t="n">
+      <c r="J50" s="12" t="n">
         <v>42670</v>
       </c>
       <c r="K50" s="9" t="n">
         <v>92450000</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="6" t="n">
         <v>42634</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="14" t="s">
+      <c r="B51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="8" t="n">
@@ -2740,35 +2657,35 @@
       <c r="I51" s="10" t="n">
         <v>2235506</v>
       </c>
-      <c r="J51" s="15" t="n">
+      <c r="J51" s="12" t="n">
         <v>42667</v>
       </c>
       <c r="K51" s="9" t="n">
         <v>14540000</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>22</v>
+      <c r="L51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="6" t="n">
         <v>42634</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>20</v>
+      <c r="B52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F52" s="8" t="n">
         <v>5300</v>
@@ -2782,33 +2699,33 @@
       <c r="I52" s="10" t="n">
         <v>1607408</v>
       </c>
-      <c r="J52" s="15" t="n">
+      <c r="J52" s="12" t="n">
         <v>42674</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M52" s="11" t="s">
+      <c r="L52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>42634</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
-        <v>42634</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F53" s="8" t="n">
         <v>6200</v>
@@ -2822,32 +2739,32 @@
       <c r="I53" s="10" t="n">
         <v>1607408</v>
       </c>
-      <c r="J53" s="15" t="n">
+      <c r="J53" s="12" t="n">
         <v>42674</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>22</v>
+      <c r="L53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="6" t="n">
         <v>42634</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="B54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="8" t="n">
@@ -2862,33 +2779,33 @@
       <c r="I54" s="10" t="n">
         <v>1607408</v>
       </c>
-      <c r="J54" s="15" t="n">
+      <c r="J54" s="12" t="n">
         <v>42674</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>22</v>
+      <c r="L54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="6" t="n">
         <v>42634</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>20</v>
+      <c r="B55" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F55" s="8" t="n">
         <v>5000</v>
@@ -2904,29 +2821,24 @@
       <c r="K55" s="9"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="12" t="n">
-        <f aca="false">-H55</f>
-        <v>-17450000</v>
-      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="A56" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>20</v>
+      <c r="B56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F56" s="8" t="n">
         <v>5000</v>
@@ -2940,33 +2852,33 @@
       <c r="I56" s="10" t="n">
         <v>1607408</v>
       </c>
-      <c r="J56" s="15" t="n">
+      <c r="J56" s="12" t="n">
         <v>42674</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M56" s="11" t="s">
+      <c r="L56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>42636</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
-        <v>42636</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F57" s="8" t="n">
         <v>5000</v>
@@ -2980,32 +2892,32 @@
       <c r="I57" s="10" t="n">
         <v>1607408</v>
       </c>
-      <c r="J57" s="15" t="n">
+      <c r="J57" s="12" t="n">
         <v>42674</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>22</v>
+      <c r="L57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+      <c r="A58" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="B58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="8" t="n">
@@ -3022,29 +2934,24 @@
       <c r="K58" s="9"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58" s="12" t="n">
-        <f aca="false">-H58</f>
-        <v>-22537000</v>
-      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
+      <c r="A59" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>20</v>
+      <c r="B59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F59" s="8" t="n">
         <v>4000</v>
@@ -3058,34 +2965,34 @@
       <c r="I59" s="10" t="n">
         <v>1951262</v>
       </c>
-      <c r="J59" s="15" t="n">
+      <c r="J59" s="12" t="n">
         <v>42670</v>
       </c>
       <c r="K59" s="9" t="n">
         <v>13960000</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+      <c r="A60" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="B60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="8" t="n">
@@ -3100,34 +3007,34 @@
       <c r="I60" s="10" t="n">
         <v>1607408</v>
       </c>
-      <c r="J60" s="15" t="n">
+      <c r="J60" s="12" t="n">
         <v>42674</v>
       </c>
       <c r="K60" s="9" t="n">
         <v>213536500</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>22</v>
+      <c r="L60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
+      <c r="A61" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="B61" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="8" t="n">
@@ -3142,35 +3049,35 @@
       <c r="I61" s="10" t="n">
         <v>2235510</v>
       </c>
-      <c r="J61" s="15" t="n">
+      <c r="J61" s="12" t="n">
         <v>42675</v>
       </c>
       <c r="K61" s="9" t="n">
         <v>72700000</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="N61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
+      <c r="A62" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>20</v>
+      <c r="B62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F62" s="8" t="n">
         <v>4900</v>
@@ -3184,33 +3091,33 @@
       <c r="I62" s="10" t="n">
         <v>2235509</v>
       </c>
-      <c r="J62" s="15" t="n">
+      <c r="J62" s="12" t="n">
         <v>42675</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+      <c r="A63" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>23</v>
+      <c r="B63" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F63" s="8" t="n">
         <v>5300</v>
@@ -3224,33 +3131,33 @@
       <c r="I63" s="10" t="n">
         <v>2235509</v>
       </c>
-      <c r="J63" s="15" t="n">
+      <c r="J63" s="12" t="n">
         <v>42675</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
+      <c r="A64" s="6" t="n">
         <v>42636</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="14" t="s">
+      <c r="B64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="F64" s="8" t="n">
         <v>4700</v>
@@ -3264,34 +3171,34 @@
       <c r="I64" s="10" t="n">
         <v>2235509</v>
       </c>
-      <c r="J64" s="15" t="n">
+      <c r="J64" s="12" t="n">
         <v>42675</v>
       </c>
       <c r="K64" s="9" t="n">
         <v>60279500</v>
       </c>
       <c r="L64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>42639</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
-        <v>42639</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="C65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="8" t="n">
@@ -3306,34 +3213,34 @@
       <c r="I65" s="10" t="n">
         <v>14293328</v>
       </c>
-      <c r="J65" s="15" t="n">
+      <c r="J65" s="12" t="n">
         <v>42640</v>
       </c>
       <c r="K65" s="9" t="n">
         <v>19910000</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>42640</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N65" s="5"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
-        <v>42640</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="D66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="8" t="n">
@@ -3348,34 +3255,34 @@
       <c r="I66" s="10" t="n">
         <v>2235523</v>
       </c>
-      <c r="J66" s="15" t="n">
+      <c r="J66" s="12" t="n">
         <v>42677</v>
       </c>
       <c r="K66" s="9" t="n">
         <v>49594000</v>
       </c>
-      <c r="L66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>22</v>
+      <c r="L66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="n">
+      <c r="A67" s="6" t="n">
         <v>42640</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="B67" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="8" t="n">
@@ -3392,29 +3299,24 @@
       <c r="K67" s="9"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O67" s="12" t="n">
-        <f aca="false">-H67</f>
-        <v>-72038000</v>
-      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
+      <c r="A68" s="6" t="n">
         <v>42640</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" s="8" t="n">
         <v>5000</v>
@@ -3428,33 +3330,33 @@
       <c r="I68" s="10" t="n">
         <v>2235526</v>
       </c>
-      <c r="J68" s="15" t="n">
+      <c r="J68" s="12" t="n">
         <v>42671</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>42640</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N68" s="5"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="n">
-        <v>42640</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F69" s="8" t="n">
         <v>10000</v>
@@ -3468,34 +3370,34 @@
       <c r="I69" s="10" t="n">
         <v>2235526</v>
       </c>
-      <c r="J69" s="15" t="n">
+      <c r="J69" s="12" t="n">
         <v>42671</v>
       </c>
       <c r="K69" s="9" t="n">
         <v>56650000</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
+      <c r="A70" s="6" t="n">
         <v>42641</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="B70" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="8" t="n">
@@ -3512,29 +3414,24 @@
       <c r="K70" s="9"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O70" s="12" t="n">
-        <f aca="false">-H70</f>
-        <v>-36200000</v>
-      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
+      <c r="A71" s="6" t="n">
         <v>42641</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F71" s="8" t="n">
         <v>10000</v>
@@ -3550,29 +3447,24 @@
       <c r="K71" s="9"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O71" s="12" t="n">
-        <f aca="false">-H71</f>
-        <v>-34500000</v>
-      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
+      <c r="A72" s="6" t="n">
         <v>42641</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72" s="8" t="n">
         <v>10000</v>
@@ -3588,23 +3480,18 @@
       <c r="K72" s="9"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O72" s="12" t="n">
-        <f aca="false">-H72</f>
-        <v>-39400000</v>
-      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
+      <c r="A73" s="6" t="n">
         <v>42641</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>15</v>
@@ -3624,29 +3511,29 @@
       <c r="I73" s="10" t="n">
         <v>2235507</v>
       </c>
-      <c r="J73" s="15" t="n">
+      <c r="J73" s="12" t="n">
         <v>42675</v>
       </c>
       <c r="K73" s="9" t="n">
         <v>19910000</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
+      <c r="A74" s="6" t="n">
         <v>42642</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>15</v>
@@ -3668,29 +3555,24 @@
       <c r="K74" s="9"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O74" s="12" t="n">
-        <f aca="false">-H74</f>
-        <v>-41630000</v>
-      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="n">
+      <c r="A75" s="6" t="n">
         <v>42642</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F75" s="8" t="n">
         <v>4000</v>
@@ -3704,29 +3586,29 @@
       <c r="I75" s="10" t="n">
         <v>2235531</v>
       </c>
-      <c r="J75" s="15" t="n">
+      <c r="J75" s="12" t="n">
         <v>42677</v>
       </c>
       <c r="K75" s="9" t="n">
         <v>13800000</v>
       </c>
-      <c r="L75" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>22</v>
+      <c r="L75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
+      <c r="A76" s="6" t="n">
         <v>42643</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>15</v>
@@ -3748,29 +3630,24 @@
       <c r="K76" s="9"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O76" s="12" t="n">
-        <f aca="false">-H76</f>
-        <v>-73486000</v>
-      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="n">
+      <c r="A77" s="6" t="n">
         <v>42643</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="8" t="n">
         <v>5000</v>
@@ -3784,33 +3661,33 @@
       <c r="I77" s="10" t="n">
         <v>2235534</v>
       </c>
-      <c r="J77" s="15" t="n">
+      <c r="J77" s="12" t="n">
         <v>42684</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="n">
-        <v>42643</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F78" s="8" t="n">
         <v>9600</v>
@@ -3824,29 +3701,29 @@
       <c r="I78" s="10" t="n">
         <v>2235534</v>
       </c>
-      <c r="J78" s="15" t="n">
+      <c r="J78" s="12" t="n">
         <v>42684</v>
       </c>
       <c r="K78" s="9" t="n">
         <v>55074000</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="n">
+      <c r="A79" s="6" t="n">
         <v>42643</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>15</v>
@@ -3866,35 +3743,35 @@
       <c r="I79" s="10" t="n">
         <v>2235535</v>
       </c>
-      <c r="J79" s="15" t="n">
+      <c r="J79" s="12" t="n">
         <v>42682</v>
       </c>
       <c r="K79" s="9" t="n">
         <v>22444000</v>
       </c>
-      <c r="L79" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>22</v>
+      <c r="L79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="n">
+      <c r="A80" s="6" t="n">
         <v>42643</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" s="8" t="n">
         <v>5300</v>
@@ -3908,33 +3785,33 @@
       <c r="I80" s="10" t="n">
         <v>2235536</v>
       </c>
-      <c r="J80" s="15" t="n">
+      <c r="J80" s="12" t="n">
         <v>42685</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="N80" s="5"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="n">
-        <v>42643</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F81" s="8" t="n">
         <v>4000</v>
@@ -3948,46 +3825,37 @@
       <c r="I81" s="10" t="n">
         <v>2235536</v>
       </c>
-      <c r="J81" s="15" t="n">
+      <c r="J81" s="12" t="n">
         <v>42685</v>
       </c>
       <c r="K81" s="9" t="n">
         <v>34045000</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="17" t="n">
+      <c r="H82" s="14" t="n">
         <f aca="false">SUM(H2:H81)</f>
         <v>2831986000</v>
       </c>
-      <c r="K82" s="17" t="n">
+      <c r="K82" s="14" t="n">
         <f aca="false">SUM(K2:K81)</f>
         <v>2007353000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H86" s="12" t="n">
+      <c r="H86" s="11" t="n">
         <f aca="false">K82-H82</f>
         <v>-824633000</v>
       </c>
-      <c r="O86" s="12" t="n">
-        <f aca="false">SUM(O2:O85)</f>
-        <v>-824633000</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O86" s="11"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
